--- a/biology/Médecine/Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro/Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro.xlsx
+++ b/biology/Médecine/Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro/Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
+          <t>Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diéthylstilbestrol (DES) est un œstrogène de synthèse (le premier à pouvoir être administré par voie orale) qui fut commercialisé sous le nom de distilbène ou stillbestrolBorne entre les années 1950 et 1977 en France (première mise sur le marché en Belgique et en Suisse en 1948).
 Bien que, très rapidement (dès 1953), des études eussent démontré l'inefficacité de cette molécule, rien ne put arrêter l'engouement mondial pour ce nouveau médicament, qui prit une ampleur considérable. On l'administra principalement pour prévenir la survenue de fausses couches, mais très vite, ses indications s'étendirent au traitement de la stérilité, du diabète gestationnel, de la pré-éclampsie...
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
+          <t>Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,61 +531,205 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anomalies anatomiques des voies génitales
-Elles peuvent être absentes, isolées ou multiples (d'autant plus fréquentes que l'embryon a été exposé précocement à la molécule). 
+          <t>Anomalies anatomiques des voies génitales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elles peuvent être absentes, isolées ou multiples (d'autant plus fréquentes que l'embryon a été exposé précocement à la molécule). 
 Adénose cervico-vaginale : présence de fragments de muqueuse utérine au niveau de la paroi vaginale et du col de l'utérus. La plupart du temps, ces lésions sont asymptomatiques, mais elles peuvent aussi occasionner des pertes blanches anormales, voire des saignements (rare). Ces anomalies sont néanmoins à surveiller étroitement en raison du risque de transformation anormale de ces cellules (dysplasie). Elles imposent donc un frottis annuel, dès l'adolescence.
 Rétrécissement de la cavité utérine (hypoplasie utérine) ou utérus en forme de T qui génèrent des difficultés de nidation et un risque accru de fausses couches. Chez certaines femmes, les malformations sont telles qu'aucune grossesse ne peut être espérée.
 Ouverture anormale du col (béance du col) expliquant le risque accru de fausses couches tardives et d'infections.
-Trompes grêles, voire, dans certains cas, complètement bouchées.
-Troubles de la fertilité
-Ils se rencontrent chez un tiers des femmes exposées, ce qui correspond à un risque doublé par rapport à la population générale.
+Trompes grêles, voire, dans certains cas, complètement bouchées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Conséquences du Distilbène chez les filles exposées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Troubles de la fertilité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ils se rencontrent chez un tiers des femmes exposées, ce qui correspond à un risque doublé par rapport à la population générale.
 On peut observer chez ces femmes :
 des anomalies de la glaire cervicale empêchant le passage des spermatozoïdes au-delà du col de l'utérus ;
-des troubles d'ovulation, allant jusqu'à l'absence totale d'ovulation (anovulation).
-Complications lors des grossesses
-En cas de grossesse, ces femmes présentent un risque accru :
+des troubles d'ovulation, allant jusqu'à l'absence totale d'ovulation (anovulation).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Conséquences du Distilbène chez les filles exposées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Complications lors des grossesses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En cas de grossesse, ces femmes présentent un risque accru :
 de fausses couches à répétition ;
 de fausses couches tardives, en raison de la béance du col utérin ;
 de grossesses extra-utérines (risque multiplié par 6) ;
 de menaces d'accouchement prématuré (contraction bien avant la DPA, nécessitant du repos et un traitement) ;
-de prématurité.
-Cancer du vagin et du col de l'utérus
-Ce type de cancer reste assez rare (une femme sur 1 000 femmes exposées). Il se manifeste surtout entre les âges de 17 et 22 ans, mais des cas ont été décrits jusqu'à 30 ans. On doit y songer, en cas de saignements anormaux en dehors des règles chez ces femmes.
+de prématurité.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Conséquences du Distilbène chez les filles exposées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cancer du vagin et du col de l'utérus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de cancer reste assez rare (une femme sur 1 000 femmes exposées). Il se manifeste surtout entre les âges de 17 et 22 ans, mais des cas ont été décrits jusqu'à 30 ans. On doit y songer, en cas de saignements anormaux en dehors des règles chez ces femmes.
 Ce cancer a d'autant plus de chances de bien répondre à la chirurgie et à la radiothérapie, que le diagnostic est fait précocement. Il est donc important que ces femmes soient suivies une fois par an par un gynécologue, avec frottis du vagin et du col.
 Tout saignement anormal doit également imposer un examen gynécologique rapide, afin d'exclure cette éventualité. 
-Troubles psychiatriques
-Certaines études tendent à montrer que certains troubles psychiatriques graves touchant ces enfants exposés et apparaissant à la post-adolescence (schizophrénie, troubles du comportement alimentaire, dépressions graves) pourraient être la conséquence de l'imprégnation des mères par le DES pendant la grossesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Conséquences du Distilbène chez les filles exposées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Troubles psychiatriques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines études tendent à montrer que certains troubles psychiatriques graves touchant ces enfants exposés et apparaissant à la post-adolescence (schizophrénie, troubles du comportement alimentaire, dépressions graves) pourraient être la conséquence de l'imprégnation des mères par le DES pendant la grossesse.
 D'autres études sont néanmoins encore nécessaires pour confirmer ou infirmer ces résultats. 
 Il faut néanmoins noter qu'un certain nombre de filles dont les mères ont pris du DES pendant la grossesse n'auront aucune difficulté à avoir des enfants, et ne présenteront ni maladies, ni malformations.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les filles DES et la stérilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En cas d'absence de grossesse chez ces femmes, il faudrait réaliser :
 un bilan normal d'hypofertilité ;
@@ -590,31 +746,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Et en cas de grossesse ?</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Bien que la plupart des grossesses se déroulent normalement chez ces femmes, ces grossesses doivent néanmoins être considérées comme étant « à risque » (comparable à celui des grossesses gémellaires).
 En fonction des antécédents obstétricaux, des malformations utérines et de l'état du col, certaines mesures préventives peuvent être prises :
@@ -623,31 +781,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Répercussions_du_distilbène_chez_les_enfants_exposés_in_utéro</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%A9percussions_du_distilb%C3%A8ne_chez_les_enfants_expos%C3%A9s_in_ut%C3%A9ro</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Et les fils Distilbène ?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les conséquences de l'exposition in utero au DES sont bien connues chez la femme. Bien peu d'études ont été menées chez l'homme.
 Peut-on en conclure que ce médicament n'affecte pas les garçons ? Rien n'est moins sûr.
